--- a/modelo_memo.xlsx
+++ b/modelo_memo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5053CF-4C31-40B4-860E-8CD35563C520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF88C225-AF2C-4C46-A45F-2C23D964E759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>ITEM</t>
   </si>
@@ -160,8 +160,16 @@
     <t>Rondonópolis -  MT,  19 de agosto de 2024</t>
   </si>
   <si>
-    <t>1.0 MEMORANDO INTERNO 
-nº 605/2024</t>
+    <t xml:space="preserve">1.0 MEMORANDO INTERNO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                nº 605/2024</t>
+  </si>
+  <si>
+    <t>COMPRA DIRETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       X                 PREGAO N° 031/2023</t>
   </si>
 </sst>
 </file>
@@ -260,7 +268,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -400,12 +408,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -536,37 +559,11 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -608,10 +605,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -626,10 +619,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -640,18 +629,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -744,11 +721,89 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -770,449 +825,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>273846</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>309561</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Retângulo 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="71438" y="4464844"/>
-          <a:ext cx="202408" cy="202405"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>295277</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>559594</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>333373</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Retângulo 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="295277" y="4486274"/>
-          <a:ext cx="883442" cy="204787"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1050"/>
-            <a:t>COMPRA</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1000"/>
-            <a:t> DIRETA</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1012021</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1214429</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>311943</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Retângulo 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1631146" y="4467226"/>
-          <a:ext cx="202408" cy="202405"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR"/>
-            <a:t>X</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1235860</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2297896</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>347661</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Retângulo 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1854985" y="4393406"/>
-          <a:ext cx="1062036" cy="311943"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1050"/>
-            <a:t>PREGÃO N°  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>021/2023</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1050">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1050"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1000" u="sng"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2333614</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2536022</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>311943</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Retângulo 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2952739" y="4467226"/>
-          <a:ext cx="202408" cy="202405"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2581265</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3679019</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Retângulo 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3200390" y="4417219"/>
-          <a:ext cx="1097754" cy="273844"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1050"/>
-            <a:t>LICITAÇÃO</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1000" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1000" baseline="0"/>
-            <a:t>Nº ____</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1681,6 +1293,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector reto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D30F27AE-1FE0-2FDB-F910-B1ADD493CBDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="4610100"/>
+          <a:ext cx="12700" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1977,7 +1639,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1992,214 +1654,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="60" t="s">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="93"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="99"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
     </row>
     <row r="4" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="85"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="86" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
     </row>
     <row r="7" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="91"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="79"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="82" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="72"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="72"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="82" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
     </row>
     <row r="12" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="93"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="18"/>
       <c r="D13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="61" t="s">
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-    </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="103"/>
+      <c r="B15" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="101"/>
+      <c r="D15" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
     </row>
     <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="59" t="s">
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="78"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
     </row>
     <row r="20" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="81"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
     </row>
     <row r="21" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
@@ -2211,10 +1879,10 @@
       <c r="C21" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="57"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="26" t="s">
         <v>15</v>
       </c>
@@ -2230,10 +1898,10 @@
         <v>2447</v>
       </c>
       <c r="C22" s="31"/>
-      <c r="D22" s="94" t="s">
+      <c r="D22" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="95"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="30" t="s">
         <v>15</v>
       </c>
@@ -2245,8 +1913,8 @@
       <c r="A23" s="30"/>
       <c r="B23" s="33"/>
       <c r="C23" s="31"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="85"/>
       <c r="F23" s="30"/>
       <c r="G23" s="34"/>
     </row>
@@ -2254,8 +1922,8 @@
       <c r="A24" s="28"/>
       <c r="B24" s="29"/>
       <c r="C24" s="31"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="87"/>
       <c r="F24" s="30"/>
       <c r="G24" s="35"/>
     </row>
@@ -2263,8 +1931,8 @@
       <c r="A25" s="10"/>
       <c r="B25" s="20"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="83"/>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
     </row>
@@ -2272,8 +1940,8 @@
       <c r="A26" s="11"/>
       <c r="B26" s="21"/>
       <c r="C26" s="32"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83"/>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
     </row>
@@ -2281,8 +1949,8 @@
       <c r="A27" s="10"/>
       <c r="B27" s="20"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="83"/>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
     </row>
@@ -2290,8 +1958,8 @@
       <c r="A28" s="10"/>
       <c r="B28" s="20"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="83"/>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
     </row>
@@ -2299,8 +1967,8 @@
       <c r="A29" s="11"/>
       <c r="B29" s="21"/>
       <c r="C29" s="32"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="83"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
     </row>
@@ -2308,8 +1976,8 @@
       <c r="A30" s="10"/>
       <c r="B30" s="20"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="83"/>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
     </row>
@@ -2317,8 +1985,8 @@
       <c r="A31" s="10"/>
       <c r="B31" s="20"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="83"/>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
     </row>
@@ -2326,8 +1994,8 @@
       <c r="A32" s="11"/>
       <c r="B32" s="21"/>
       <c r="C32" s="32"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="83"/>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
     </row>
@@ -2335,8 +2003,8 @@
       <c r="A33" s="10"/>
       <c r="B33" s="20"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="83"/>
       <c r="F33" s="11"/>
       <c r="G33" s="10"/>
     </row>
@@ -2344,8 +2012,8 @@
       <c r="A34" s="10"/>
       <c r="B34" s="20"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="83"/>
       <c r="F34" s="11"/>
       <c r="G34" s="10"/>
       <c r="H34" s="14"/>
@@ -2354,8 +2022,8 @@
       <c r="A35" s="11"/>
       <c r="B35" s="21"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="40"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="83"/>
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
     </row>
@@ -2363,8 +2031,8 @@
       <c r="A36" s="10"/>
       <c r="B36" s="20"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="40"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="83"/>
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
     </row>
@@ -2372,8 +2040,8 @@
       <c r="A37" s="10"/>
       <c r="B37" s="20"/>
       <c r="C37" s="22"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="40"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="83"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
@@ -2381,8 +2049,8 @@
       <c r="A38" s="11"/>
       <c r="B38" s="21"/>
       <c r="C38" s="32"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="40"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="83"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
@@ -2390,8 +2058,8 @@
       <c r="A39" s="10"/>
       <c r="B39" s="20"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="40"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="83"/>
       <c r="F39" s="11"/>
       <c r="G39" s="17"/>
     </row>
@@ -2399,8 +2067,8 @@
       <c r="A40" s="10"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="83"/>
       <c r="F40" s="11"/>
       <c r="G40" s="17"/>
     </row>
@@ -2408,8 +2076,8 @@
       <c r="A41" s="11"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="40"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="83"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
@@ -2417,8 +2085,8 @@
       <c r="A42" s="10"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="83"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
@@ -2426,8 +2094,8 @@
       <c r="A43" s="10"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="40"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="83"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="13"/>
@@ -2436,8 +2104,8 @@
       <c r="A44" s="11"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="40"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="83"/>
       <c r="F44" s="11"/>
       <c r="G44" s="10"/>
       <c r="H44" s="13"/>
@@ -2446,8 +2114,8 @@
       <c r="A45" s="10"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="40"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="83"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="13"/>
@@ -2456,8 +2124,8 @@
       <c r="A46" s="10"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="40"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="83"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
@@ -2465,8 +2133,8 @@
       <c r="A47" s="11"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="40"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="83"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
     </row>
@@ -2474,8 +2142,8 @@
       <c r="A48" s="10"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="40"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="83"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
@@ -2483,8 +2151,8 @@
       <c r="A49" s="10"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="40"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="83"/>
       <c r="F49" s="11"/>
       <c r="G49" s="17"/>
     </row>
@@ -2492,8 +2160,8 @@
       <c r="A50" s="11"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="40"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="83"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
     </row>
@@ -2501,21 +2169,21 @@
       <c r="A51" s="10"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="40"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="83"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="38"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="90"/>
     </row>
     <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
@@ -2542,37 +2210,8 @@
       <c r="F58" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="E13:G16"/>
-    <mergeCell ref="E17:G20"/>
-    <mergeCell ref="E1:G3"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A6:D12"/>
-    <mergeCell ref="A17:D20"/>
-    <mergeCell ref="E10:G12"/>
-    <mergeCell ref="E8:G9"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+  <mergeCells count="45">
+    <mergeCell ref="E1:G2"/>
     <mergeCell ref="A52:G52"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
@@ -2589,6 +2228,34 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="E13:G16"/>
+    <mergeCell ref="E17:G20"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A6:D12"/>
+    <mergeCell ref="A17:D20"/>
+    <mergeCell ref="E10:G12"/>
+    <mergeCell ref="E8:G9"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G7"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/modelo_memo.xlsx
+++ b/modelo_memo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF88C225-AF2C-4C46-A45F-2C23D964E759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01209870-2DF4-4C6D-8CC5-CEBFF1863650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,9 +157,6 @@
     <t>TAMPAO DE FERRO FUNDIDO DUCTIL, 45KG, COM TRAVAS, CARGA MAXIMA 40000KG, DIAM ABERTO 600MM, PERSONALIZADO COM A LOGOMARCA SOLICITADA PARA POCO DE VISITA DE REDE DE ESGOTO EM CONFORMIDADE COM A NBR-10160</t>
   </si>
   <si>
-    <t>Rondonópolis -  MT,  19 de agosto de 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.0 MEMORANDO INTERNO </t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t xml:space="preserve">       X                 PREGAO N° 031/2023</t>
+  </si>
+  <si>
+    <t>Rondonópolis -  MT,  03 de setembro de 2024</t>
   </si>
 </sst>
 </file>
@@ -565,6 +565,90 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -719,90 +803,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1639,7 +1639,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D31" sqref="D31:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1654,220 +1654,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="91" t="s">
+      <c r="A1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+    </row>
+    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="92"/>
-      <c r="G1" s="93"/>
-    </row>
-    <row r="2" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="99"/>
-    </row>
-    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="94" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="73"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="74" t="s">
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
     </row>
     <row r="7" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="79"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="101"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="70" t="s">
+      <c r="A8" s="82"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="60"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="70" t="s">
+      <c r="A10" s="82"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
     </row>
     <row r="12" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="81"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="18"/>
       <c r="D13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="103"/>
-      <c r="B15" s="102" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
     </row>
     <row r="16" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
     </row>
     <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="51" t="s">
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
     </row>
     <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="66"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="66"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
     </row>
     <row r="20" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="69"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
     </row>
     <row r="21" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
@@ -1879,10 +1879,10 @@
       <c r="C21" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="49"/>
+      <c r="E21" s="71"/>
       <c r="F21" s="26" t="s">
         <v>15</v>
       </c>
@@ -1913,8 +1913,8 @@
       <c r="A23" s="30"/>
       <c r="B23" s="33"/>
       <c r="C23" s="31"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="30"/>
       <c r="G23" s="34"/>
     </row>
@@ -1922,8 +1922,8 @@
       <c r="A24" s="28"/>
       <c r="B24" s="29"/>
       <c r="C24" s="31"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="30"/>
       <c r="G24" s="35"/>
     </row>
@@ -1931,8 +1931,8 @@
       <c r="A25" s="10"/>
       <c r="B25" s="20"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="83"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
     </row>
@@ -1940,8 +1940,8 @@
       <c r="A26" s="11"/>
       <c r="B26" s="21"/>
       <c r="C26" s="32"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
     </row>
@@ -1949,8 +1949,8 @@
       <c r="A27" s="10"/>
       <c r="B27" s="20"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="83"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
     </row>
@@ -1958,8 +1958,8 @@
       <c r="A28" s="10"/>
       <c r="B28" s="20"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="83"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
     </row>
@@ -1967,8 +1967,8 @@
       <c r="A29" s="11"/>
       <c r="B29" s="21"/>
       <c r="C29" s="32"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="83"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
     </row>
@@ -1976,8 +1976,8 @@
       <c r="A30" s="10"/>
       <c r="B30" s="20"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="83"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
     </row>
@@ -1985,8 +1985,8 @@
       <c r="A31" s="10"/>
       <c r="B31" s="20"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="83"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
     </row>
@@ -1994,8 +1994,8 @@
       <c r="A32" s="11"/>
       <c r="B32" s="21"/>
       <c r="C32" s="32"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="83"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="55"/>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
     </row>
@@ -2003,8 +2003,8 @@
       <c r="A33" s="10"/>
       <c r="B33" s="20"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="83"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
       <c r="F33" s="11"/>
       <c r="G33" s="10"/>
     </row>
@@ -2012,8 +2012,8 @@
       <c r="A34" s="10"/>
       <c r="B34" s="20"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="83"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="55"/>
       <c r="F34" s="11"/>
       <c r="G34" s="10"/>
       <c r="H34" s="14"/>
@@ -2022,8 +2022,8 @@
       <c r="A35" s="11"/>
       <c r="B35" s="21"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="83"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="55"/>
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
     </row>
@@ -2031,8 +2031,8 @@
       <c r="A36" s="10"/>
       <c r="B36" s="20"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="83"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
     </row>
@@ -2040,8 +2040,8 @@
       <c r="A37" s="10"/>
       <c r="B37" s="20"/>
       <c r="C37" s="22"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="83"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
@@ -2049,8 +2049,8 @@
       <c r="A38" s="11"/>
       <c r="B38" s="21"/>
       <c r="C38" s="32"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="83"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="55"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
@@ -2058,8 +2058,8 @@
       <c r="A39" s="10"/>
       <c r="B39" s="20"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="83"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="55"/>
       <c r="F39" s="11"/>
       <c r="G39" s="17"/>
     </row>
@@ -2067,8 +2067,8 @@
       <c r="A40" s="10"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="83"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="55"/>
       <c r="F40" s="11"/>
       <c r="G40" s="17"/>
     </row>
@@ -2076,8 +2076,8 @@
       <c r="A41" s="11"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="83"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="55"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
@@ -2085,8 +2085,8 @@
       <c r="A42" s="10"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="83"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="55"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
@@ -2094,8 +2094,8 @@
       <c r="A43" s="10"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="83"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="55"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="13"/>
@@ -2104,8 +2104,8 @@
       <c r="A44" s="11"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="83"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="55"/>
       <c r="F44" s="11"/>
       <c r="G44" s="10"/>
       <c r="H44" s="13"/>
@@ -2114,8 +2114,8 @@
       <c r="A45" s="10"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="83"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="55"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="13"/>
@@ -2124,8 +2124,8 @@
       <c r="A46" s="10"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="83"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="55"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
@@ -2133,8 +2133,8 @@
       <c r="A47" s="11"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="83"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="55"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
     </row>
@@ -2142,8 +2142,8 @@
       <c r="A48" s="10"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="83"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="55"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
@@ -2151,8 +2151,8 @@
       <c r="A49" s="10"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="83"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="55"/>
       <c r="F49" s="11"/>
       <c r="G49" s="17"/>
     </row>
@@ -2160,8 +2160,8 @@
       <c r="A50" s="11"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="83"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="55"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
     </row>
@@ -2169,21 +2169,21 @@
       <c r="A51" s="10"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="83"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="55"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="89"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="90"/>
+      <c r="A52" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
     </row>
     <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
@@ -2211,6 +2211,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="E13:G16"/>
+    <mergeCell ref="E17:G20"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A6:D12"/>
+    <mergeCell ref="A17:D20"/>
+    <mergeCell ref="E10:G12"/>
+    <mergeCell ref="E8:G9"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="E1:G2"/>
     <mergeCell ref="A52:G52"/>
     <mergeCell ref="D27:E27"/>
@@ -2227,35 +2256,6 @@
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="E13:G16"/>
-    <mergeCell ref="E17:G20"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A6:D12"/>
-    <mergeCell ref="A17:D20"/>
-    <mergeCell ref="E10:G12"/>
-    <mergeCell ref="E8:G9"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G7"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/modelo_memo.xlsx
+++ b/modelo_memo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01209870-2DF4-4C6D-8CC5-CEBFF1863650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777EFE24-7AEE-4688-881F-50044A5E9EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,16 +160,16 @@
     <t xml:space="preserve">1.0 MEMORANDO INTERNO </t>
   </si>
   <si>
-    <t xml:space="preserve">                nº 605/2024</t>
-  </si>
-  <si>
     <t>COMPRA DIRETA</t>
   </si>
   <si>
     <t xml:space="preserve">       X                 PREGAO N° 031/2023</t>
   </si>
   <si>
-    <t>Rondonópolis -  MT,  03 de setembro de 2024</t>
+    <t>Rondonópolis -  MT,  25 de setembro de 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                nº 706/2024</t>
   </si>
 </sst>
 </file>
@@ -593,62 +593,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -803,6 +747,62 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1639,7 +1639,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:E31"/>
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1654,220 +1654,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="45" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="38" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="94"/>
-      <c r="G5" s="95"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="80"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="96" t="s">
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="83"/>
     </row>
     <row r="7" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="82"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="101"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="82"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="92" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="82"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="82"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="92" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="82"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
     </row>
     <row r="12" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="85"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="103"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="18"/>
       <c r="D13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" s="43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
+        <v>22</v>
+      </c>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
     </row>
     <row r="16" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
     </row>
     <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="73" t="s">
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="88"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="88"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
     </row>
     <row r="20" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="91"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
     </row>
     <row r="21" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
@@ -1879,10 +1879,10 @@
       <c r="C21" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="70" t="s">
+      <c r="D21" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="71"/>
+      <c r="E21" s="56"/>
       <c r="F21" s="26" t="s">
         <v>15</v>
       </c>
@@ -1913,8 +1913,8 @@
       <c r="A23" s="30"/>
       <c r="B23" s="33"/>
       <c r="C23" s="31"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="90"/>
       <c r="F23" s="30"/>
       <c r="G23" s="34"/>
     </row>
@@ -1922,8 +1922,8 @@
       <c r="A24" s="28"/>
       <c r="B24" s="29"/>
       <c r="C24" s="31"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="94"/>
       <c r="F24" s="30"/>
       <c r="G24" s="35"/>
     </row>
@@ -1931,8 +1931,8 @@
       <c r="A25" s="10"/>
       <c r="B25" s="20"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="55"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="92"/>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
     </row>
@@ -1940,8 +1940,8 @@
       <c r="A26" s="11"/>
       <c r="B26" s="21"/>
       <c r="C26" s="32"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="55"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="92"/>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
     </row>
@@ -1949,8 +1949,8 @@
       <c r="A27" s="10"/>
       <c r="B27" s="20"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="92"/>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
     </row>
@@ -1958,8 +1958,8 @@
       <c r="A28" s="10"/>
       <c r="B28" s="20"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="92"/>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
     </row>
@@ -1967,8 +1967,8 @@
       <c r="A29" s="11"/>
       <c r="B29" s="21"/>
       <c r="C29" s="32"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
     </row>
@@ -1976,8 +1976,8 @@
       <c r="A30" s="10"/>
       <c r="B30" s="20"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="92"/>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
     </row>
@@ -1985,8 +1985,8 @@
       <c r="A31" s="10"/>
       <c r="B31" s="20"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="92"/>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
     </row>
@@ -1994,8 +1994,8 @@
       <c r="A32" s="11"/>
       <c r="B32" s="21"/>
       <c r="C32" s="32"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="55"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="92"/>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
     </row>
@@ -2003,8 +2003,8 @@
       <c r="A33" s="10"/>
       <c r="B33" s="20"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="55"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="92"/>
       <c r="F33" s="11"/>
       <c r="G33" s="10"/>
     </row>
@@ -2012,8 +2012,8 @@
       <c r="A34" s="10"/>
       <c r="B34" s="20"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="55"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="92"/>
       <c r="F34" s="11"/>
       <c r="G34" s="10"/>
       <c r="H34" s="14"/>
@@ -2022,8 +2022,8 @@
       <c r="A35" s="11"/>
       <c r="B35" s="21"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="55"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="92"/>
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
     </row>
@@ -2031,8 +2031,8 @@
       <c r="A36" s="10"/>
       <c r="B36" s="20"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="55"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="92"/>
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
     </row>
@@ -2040,8 +2040,8 @@
       <c r="A37" s="10"/>
       <c r="B37" s="20"/>
       <c r="C37" s="22"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="55"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="92"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
@@ -2049,8 +2049,8 @@
       <c r="A38" s="11"/>
       <c r="B38" s="21"/>
       <c r="C38" s="32"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="55"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="92"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
@@ -2058,8 +2058,8 @@
       <c r="A39" s="10"/>
       <c r="B39" s="20"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="55"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="92"/>
       <c r="F39" s="11"/>
       <c r="G39" s="17"/>
     </row>
@@ -2067,8 +2067,8 @@
       <c r="A40" s="10"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="55"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="92"/>
       <c r="F40" s="11"/>
       <c r="G40" s="17"/>
     </row>
@@ -2076,8 +2076,8 @@
       <c r="A41" s="11"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="55"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="92"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
@@ -2085,8 +2085,8 @@
       <c r="A42" s="10"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="55"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="92"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
@@ -2094,8 +2094,8 @@
       <c r="A43" s="10"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="55"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="92"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="13"/>
@@ -2104,8 +2104,8 @@
       <c r="A44" s="11"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="55"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="92"/>
       <c r="F44" s="11"/>
       <c r="G44" s="10"/>
       <c r="H44" s="13"/>
@@ -2114,8 +2114,8 @@
       <c r="A45" s="10"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="55"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="92"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="13"/>
@@ -2124,8 +2124,8 @@
       <c r="A46" s="10"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="55"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="92"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
@@ -2133,8 +2133,8 @@
       <c r="A47" s="11"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="55"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="92"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
     </row>
@@ -2142,8 +2142,8 @@
       <c r="A48" s="10"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="55"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="92"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
@@ -2151,8 +2151,8 @@
       <c r="A49" s="10"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="55"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="92"/>
       <c r="F49" s="11"/>
       <c r="G49" s="17"/>
     </row>
@@ -2160,8 +2160,8 @@
       <c r="A50" s="11"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="55"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="92"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
     </row>
@@ -2169,21 +2169,21 @@
       <c r="A51" s="10"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="55"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="92"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
+      <c r="A52" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="102"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="103"/>
     </row>
     <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
@@ -2211,36 +2211,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="E13:G16"/>
-    <mergeCell ref="E17:G20"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A6:D12"/>
-    <mergeCell ref="A17:D20"/>
-    <mergeCell ref="E10:G12"/>
-    <mergeCell ref="E8:G9"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="E1:G2"/>
     <mergeCell ref="A52:G52"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
@@ -2256,6 +2226,36 @@
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="E13:G16"/>
+    <mergeCell ref="E17:G20"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A6:D12"/>
+    <mergeCell ref="A17:D20"/>
+    <mergeCell ref="E10:G12"/>
+    <mergeCell ref="E8:G9"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/modelo_memo.xlsx
+++ b/modelo_memo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777EFE24-7AEE-4688-881F-50044A5E9EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B9A4F4-9F39-411E-98E0-3C1BB979D938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,10 +166,10 @@
     <t xml:space="preserve">       X                 PREGAO N° 031/2023</t>
   </si>
   <si>
-    <t>Rondonópolis -  MT,  25 de setembro de 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                nº 706/2024</t>
+    <t>Rondonópolis -  MT,  10 de outubro de 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                nº 741/2024</t>
   </si>
 </sst>
 </file>
@@ -268,7 +268,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -404,21 +404,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -589,8 +574,36 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -749,26 +762,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -793,16 +786,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1639,7 +1624,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1654,30 +1639,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="95" t="s">
+      <c r="A1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="97"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="100"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="38" t="s">
         <v>24</v>
       </c>
@@ -1685,130 +1670,130 @@
       <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="80"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="81" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="83"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
     </row>
     <row r="7" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="86"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="94"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="77" t="s">
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="77" t="s">
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
     </row>
     <row r="12" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="88"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="18"/>
       <c r="D13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-    </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="103"/>
       <c r="B15" s="43" t="s">
         <v>21</v>
       </c>
@@ -1816,58 +1801,58 @@
       <c r="D15" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
     </row>
     <row r="16" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="58" t="s">
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
     </row>
     <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="73"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="73"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
     </row>
     <row r="20" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="76"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
     </row>
     <row r="21" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
@@ -1879,10 +1864,10 @@
       <c r="C21" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="56"/>
+      <c r="E21" s="64"/>
       <c r="F21" s="26" t="s">
         <v>15</v>
       </c>
@@ -1913,8 +1898,8 @@
       <c r="A23" s="30"/>
       <c r="B23" s="33"/>
       <c r="C23" s="31"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="90"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
       <c r="F23" s="30"/>
       <c r="G23" s="34"/>
     </row>
@@ -1922,8 +1907,8 @@
       <c r="A24" s="28"/>
       <c r="B24" s="29"/>
       <c r="C24" s="31"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="94"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
       <c r="F24" s="30"/>
       <c r="G24" s="35"/>
     </row>
@@ -1931,8 +1916,8 @@
       <c r="A25" s="10"/>
       <c r="B25" s="20"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="92"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
     </row>
@@ -1940,8 +1925,8 @@
       <c r="A26" s="11"/>
       <c r="B26" s="21"/>
       <c r="C26" s="32"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="92"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
     </row>
@@ -1949,8 +1934,8 @@
       <c r="A27" s="10"/>
       <c r="B27" s="20"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="92"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
     </row>
@@ -1958,8 +1943,8 @@
       <c r="A28" s="10"/>
       <c r="B28" s="20"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="92"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
     </row>
@@ -1967,8 +1952,8 @@
       <c r="A29" s="11"/>
       <c r="B29" s="21"/>
       <c r="C29" s="32"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="92"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
     </row>
@@ -1976,8 +1961,8 @@
       <c r="A30" s="10"/>
       <c r="B30" s="20"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="92"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
     </row>
@@ -1985,8 +1970,8 @@
       <c r="A31" s="10"/>
       <c r="B31" s="20"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="92"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
     </row>
@@ -1994,8 +1979,8 @@
       <c r="A32" s="11"/>
       <c r="B32" s="21"/>
       <c r="C32" s="32"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="92"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
     </row>
@@ -2003,8 +1988,8 @@
       <c r="A33" s="10"/>
       <c r="B33" s="20"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="92"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
       <c r="F33" s="11"/>
       <c r="G33" s="10"/>
     </row>
@@ -2012,8 +1997,8 @@
       <c r="A34" s="10"/>
       <c r="B34" s="20"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="92"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="11"/>
       <c r="G34" s="10"/>
       <c r="H34" s="14"/>
@@ -2022,8 +2007,8 @@
       <c r="A35" s="11"/>
       <c r="B35" s="21"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="92"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48"/>
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
     </row>
@@ -2031,8 +2016,8 @@
       <c r="A36" s="10"/>
       <c r="B36" s="20"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="92"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
     </row>
@@ -2040,8 +2025,8 @@
       <c r="A37" s="10"/>
       <c r="B37" s="20"/>
       <c r="C37" s="22"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="92"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="48"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
@@ -2049,8 +2034,8 @@
       <c r="A38" s="11"/>
       <c r="B38" s="21"/>
       <c r="C38" s="32"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="92"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="48"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
@@ -2058,8 +2043,8 @@
       <c r="A39" s="10"/>
       <c r="B39" s="20"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="92"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="48"/>
       <c r="F39" s="11"/>
       <c r="G39" s="17"/>
     </row>
@@ -2067,8 +2052,8 @@
       <c r="A40" s="10"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="92"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="48"/>
       <c r="F40" s="11"/>
       <c r="G40" s="17"/>
     </row>
@@ -2076,8 +2061,8 @@
       <c r="A41" s="11"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="92"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="48"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
@@ -2085,8 +2070,8 @@
       <c r="A42" s="10"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="92"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="48"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
@@ -2094,8 +2079,8 @@
       <c r="A43" s="10"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="92"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="48"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="13"/>
@@ -2104,8 +2089,8 @@
       <c r="A44" s="11"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="92"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="48"/>
       <c r="F44" s="11"/>
       <c r="G44" s="10"/>
       <c r="H44" s="13"/>
@@ -2114,8 +2099,8 @@
       <c r="A45" s="10"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="92"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="48"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="13"/>
@@ -2124,8 +2109,8 @@
       <c r="A46" s="10"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="92"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="48"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
@@ -2133,8 +2118,8 @@
       <c r="A47" s="11"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="92"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="48"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
     </row>
@@ -2142,8 +2127,8 @@
       <c r="A48" s="10"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="92"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="48"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
@@ -2151,8 +2136,8 @@
       <c r="A49" s="10"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="92"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="11"/>
       <c r="G49" s="17"/>
     </row>
@@ -2160,8 +2145,8 @@
       <c r="A50" s="11"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="92"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="48"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
     </row>
@@ -2169,21 +2154,21 @@
       <c r="A51" s="10"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="92"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="48"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="101" t="s">
+      <c r="A52" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="102"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="103"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="46"/>
     </row>
     <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
@@ -2211,6 +2196,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="E13:G16"/>
+    <mergeCell ref="E17:G20"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A6:D12"/>
+    <mergeCell ref="A17:D20"/>
+    <mergeCell ref="E10:G12"/>
+    <mergeCell ref="E8:G9"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="A52:G52"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
@@ -2227,35 +2241,6 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="E13:G16"/>
-    <mergeCell ref="E17:G20"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A6:D12"/>
-    <mergeCell ref="A17:D20"/>
-    <mergeCell ref="E10:G12"/>
-    <mergeCell ref="E8:G9"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/modelo_memo.xlsx
+++ b/modelo_memo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B9A4F4-9F39-411E-98E0-3C1BB979D938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00825D4-DE00-4460-9519-0319824C8682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Plan1!$A$1:$G$52</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Plan1!$1:$21</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -123,21 +123,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Marcos Brumatti
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>Setor Patrimonio e Almoxarifado</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>9.0 Justificativa da compra:</t>
     </r>
     <r>
@@ -150,10 +135,6 @@
     </r>
   </si>
   <si>
-    <t>DIRETORIA DE MANUTENÇÃO 
-ANDELSON GIL DO AMARAL</t>
-  </si>
-  <si>
     <t>TAMPAO DE FERRO FUNDIDO DUCTIL, 45KG, COM TRAVAS, CARGA MAXIMA 40000KG, DIAM ABERTO 600MM, PERSONALIZADO COM A LOGOMARCA SOLICITADA PARA POCO DE VISITA DE REDE DE ESGOTO EM CONFORMIDADE COM A NBR-10160</t>
   </si>
   <si>
@@ -166,10 +147,18 @@
     <t xml:space="preserve">       X                 PREGAO N° 031/2023</t>
   </si>
   <si>
-    <t>Rondonópolis -  MT,  10 de outubro de 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">                nº 741/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Luiz Carlos Nunes Pereira Gomes
+Assessor Tecnico Patrimonio e Almoxarifado</t>
+  </si>
+  <si>
+    <t>DIRETORIA ADMINISTRATIVA FINANCEIRA  
+KAMILLA GABRIELLA BANDEIRA DA SILVA BRANQUINHO</t>
+  </si>
+  <si>
+    <t>Rondonópolis -  MT,  13 de janeiro de 2025</t>
   </si>
 </sst>
 </file>
@@ -179,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -242,12 +231,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -495,59 +478,59 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -574,36 +557,8 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -646,10 +601,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -786,8 +741,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1624,7 +1607,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D25" sqref="D25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1639,220 +1622,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="102"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="94"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="38" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="80"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="91"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="82"/>
+      <c r="G6" s="83"/>
     </row>
     <row r="7" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="75"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="94"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="85" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="75"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="85" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
     </row>
     <row r="12" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="78"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="96"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="18"/>
       <c r="D13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="103"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
+        <v>20</v>
+      </c>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
     </row>
     <row r="16" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
     </row>
     <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="66" t="s">
+      <c r="A17" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="81"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="81"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
     </row>
     <row r="20" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="84"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
     </row>
     <row r="21" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
@@ -1864,10 +1847,10 @@
       <c r="C21" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="64"/>
+      <c r="E21" s="56"/>
       <c r="F21" s="26" t="s">
         <v>15</v>
       </c>
@@ -1884,7 +1867,7 @@
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="30" t="s">
@@ -1898,8 +1881,8 @@
       <c r="A23" s="30"/>
       <c r="B23" s="33"/>
       <c r="C23" s="31"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="98"/>
       <c r="F23" s="30"/>
       <c r="G23" s="34"/>
     </row>
@@ -1907,8 +1890,8 @@
       <c r="A24" s="28"/>
       <c r="B24" s="29"/>
       <c r="C24" s="31"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="100"/>
       <c r="F24" s="30"/>
       <c r="G24" s="35"/>
     </row>
@@ -1916,8 +1899,8 @@
       <c r="A25" s="10"/>
       <c r="B25" s="20"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="96"/>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
     </row>
@@ -1925,8 +1908,8 @@
       <c r="A26" s="11"/>
       <c r="B26" s="21"/>
       <c r="C26" s="32"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="96"/>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
     </row>
@@ -1934,8 +1917,8 @@
       <c r="A27" s="10"/>
       <c r="B27" s="20"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="96"/>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
     </row>
@@ -1943,8 +1926,8 @@
       <c r="A28" s="10"/>
       <c r="B28" s="20"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="96"/>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
     </row>
@@ -1952,8 +1935,8 @@
       <c r="A29" s="11"/>
       <c r="B29" s="21"/>
       <c r="C29" s="32"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="96"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
     </row>
@@ -1961,8 +1944,8 @@
       <c r="A30" s="10"/>
       <c r="B30" s="20"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="96"/>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
     </row>
@@ -1970,8 +1953,8 @@
       <c r="A31" s="10"/>
       <c r="B31" s="20"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="96"/>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
     </row>
@@ -1979,8 +1962,8 @@
       <c r="A32" s="11"/>
       <c r="B32" s="21"/>
       <c r="C32" s="32"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="48"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="96"/>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
     </row>
@@ -1988,8 +1971,8 @@
       <c r="A33" s="10"/>
       <c r="B33" s="20"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="96"/>
       <c r="F33" s="11"/>
       <c r="G33" s="10"/>
     </row>
@@ -1997,8 +1980,8 @@
       <c r="A34" s="10"/>
       <c r="B34" s="20"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="96"/>
       <c r="F34" s="11"/>
       <c r="G34" s="10"/>
       <c r="H34" s="14"/>
@@ -2007,8 +1990,8 @@
       <c r="A35" s="11"/>
       <c r="B35" s="21"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="96"/>
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
     </row>
@@ -2016,8 +1999,8 @@
       <c r="A36" s="10"/>
       <c r="B36" s="20"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="96"/>
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
     </row>
@@ -2025,8 +2008,8 @@
       <c r="A37" s="10"/>
       <c r="B37" s="20"/>
       <c r="C37" s="22"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="48"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="96"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
@@ -2034,8 +2017,8 @@
       <c r="A38" s="11"/>
       <c r="B38" s="21"/>
       <c r="C38" s="32"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="48"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="96"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
@@ -2043,8 +2026,8 @@
       <c r="A39" s="10"/>
       <c r="B39" s="20"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="48"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="96"/>
       <c r="F39" s="11"/>
       <c r="G39" s="17"/>
     </row>
@@ -2052,8 +2035,8 @@
       <c r="A40" s="10"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="48"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="96"/>
       <c r="F40" s="11"/>
       <c r="G40" s="17"/>
     </row>
@@ -2061,8 +2044,8 @@
       <c r="A41" s="11"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="48"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="96"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
@@ -2070,8 +2053,8 @@
       <c r="A42" s="10"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="48"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="96"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
@@ -2079,8 +2062,8 @@
       <c r="A43" s="10"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="48"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="96"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="13"/>
@@ -2089,8 +2072,8 @@
       <c r="A44" s="11"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="48"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="96"/>
       <c r="F44" s="11"/>
       <c r="G44" s="10"/>
       <c r="H44" s="13"/>
@@ -2099,8 +2082,8 @@
       <c r="A45" s="10"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="48"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="96"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="13"/>
@@ -2109,8 +2092,8 @@
       <c r="A46" s="10"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="48"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="96"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
@@ -2118,8 +2101,8 @@
       <c r="A47" s="11"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="48"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="96"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
     </row>
@@ -2127,8 +2110,8 @@
       <c r="A48" s="10"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="48"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="96"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
@@ -2136,8 +2119,8 @@
       <c r="A49" s="10"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="48"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="96"/>
       <c r="F49" s="11"/>
       <c r="G49" s="17"/>
     </row>
@@ -2145,8 +2128,8 @@
       <c r="A50" s="11"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="48"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="96"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
     </row>
@@ -2154,21 +2137,21 @@
       <c r="A51" s="10"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="48"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="96"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="46"/>
+      <c r="A52" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="102"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="103"/>
     </row>
     <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
@@ -2196,35 +2179,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="E13:G16"/>
-    <mergeCell ref="E17:G20"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A6:D12"/>
-    <mergeCell ref="A17:D20"/>
-    <mergeCell ref="E10:G12"/>
-    <mergeCell ref="E8:G9"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
     <mergeCell ref="A52:G52"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
@@ -2241,6 +2195,35 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="E13:G16"/>
+    <mergeCell ref="E17:G20"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A6:D12"/>
+    <mergeCell ref="A17:D20"/>
+    <mergeCell ref="E10:G12"/>
+    <mergeCell ref="E8:G9"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
